--- a/biology/Médecine/Martin_Akakia/Martin_Akakia.xlsx
+++ b/biology/Médecine/Martin_Akakia/Martin_Akakia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Martin Akakia est le nom de plusieurs médecins français des XVIe et XVIIe siècles.
-Martin Akakia I (vers 1500-1551) : natif de Châlons-en-Champagne, il se nommait Aquaqia[1], mais changea son nom en celui d’Akakia qui en est un synonyme grec signifiant « sans malice »[2], orthographe que ses descendants conservèrent. Professeur de médecine au Collège royal de chirurgie de l'université de Paris, qui le députa au concile de Trente en 1545, il fut le médecin de François Ier et de Clément Marot. Il a traduit Galien et a laissé quelques ouvrages de médecine. Mort à Paris.
+Martin Akakia I (vers 1500-1551) : natif de Châlons-en-Champagne, il se nommait Aquaqia, mais changea son nom en celui d’Akakia qui en est un synonyme grec signifiant « sans malice », orthographe que ses descendants conservèrent. Professeur de médecine au Collège royal de chirurgie de l'université de Paris, qui le députa au concile de Trente en 1545, il fut le médecin de François Ier et de Clément Marot. Il a traduit Galien et a laissé quelques ouvrages de médecine. Mort à Paris.
 Martin Akakia II (1539-1588) : fils du précédent et natif comme lui de Châlons-en-Champagne, il fut nommé à la chaire de chirurgie au Collège royal en 1574, puis second médecin de Henri III.
 Martin Akakia III (mort en 1605) : fils du précédent et né à Paris, il fit ses études de médecine à Montpellier et obtint la chaire de chirurgie au Collège royal en 1599 à la suite de la démission de son beau-frère Pierre Seguin.
 Martin Akakia IV (mort en 1677) : fils de Jean Akakia, frère du précédent et médecin ordinaire de Louis XIII, il naquit à Paris. Il fut reçu docteur de la faculté de médecine le 6 septembre 1638 et obtint la chaire de chirurgie au Collège royal en 1644.</t>
